--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/чистый бланк/Заказ Новое Время 15,09. Донецк№4.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/чистый бланк/Заказ Новое Время 15,09. Донецк№4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3092847D-5479-467A-BCE5-82B81A8CF317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B4C605-5717-4605-A22D-2B3B2CC4A42E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="кол_во_инд.__упак_к">Бланк!$AC$3:$AC$567</definedName>
     <definedName name="номин.вес_нетто__кг">Бланк!$W$3:$W$567</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.</t>
-  </si>
-  <si>
-    <t>ДЛЯ ДЕТЕЙ сос п/о мгс 0.33кг 8шт.</t>
   </si>
   <si>
     <t>СЛИВОЧНЫЕ сос ц/о мгс 1*4</t>
@@ -468,6 +465,9 @@
   </si>
   <si>
     <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>ДЛЯ ДЕТЕЙ сос п/о мгс 0,33кг 6шт</t>
   </si>
 </sst>
 </file>
@@ -914,7 +914,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1160,6 +1160,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1567,7 +1570,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,7 +1717,7 @@
         <v>7149</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="75" t="s">
         <v>20</v>
@@ -1857,7 +1860,7 @@
         <v>6877</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="75" t="s">
         <v>22</v>
@@ -1881,7 +1884,7 @@
         <v>6878</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="75" t="s">
         <v>22</v>
@@ -2137,7 +2140,7 @@
         <v>5992</v>
       </c>
       <c r="B26" s="82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="75" t="s">
         <v>20</v>
@@ -2163,7 +2166,7 @@
         <v>6325</v>
       </c>
       <c r="B27" s="82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" s="75" t="s">
         <v>20</v>
@@ -2189,7 +2192,7 @@
         <v>7231</v>
       </c>
       <c r="B28" s="82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" s="75" t="s">
         <v>20</v>
@@ -2245,7 +2248,7 @@
         <v>7126</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="75" t="s">
         <v>20</v>
@@ -2301,7 +2304,7 @@
         <v>7125</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" s="75" t="s">
         <v>22</v>
@@ -2327,7 +2330,7 @@
         <v>6888</v>
       </c>
       <c r="B33" s="82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" s="75" t="s">
         <v>20</v>
@@ -2353,7 +2356,7 @@
         <v>6268</v>
       </c>
       <c r="B34" s="82" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" s="75" t="s">
         <v>20</v>
@@ -2543,7 +2546,7 @@
         <v>6837</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="75" t="s">
         <v>20</v>
@@ -2705,7 +2708,7 @@
         <v>6616</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C47" s="75" t="s">
         <v>20</v>
@@ -2902,7 +2905,7 @@
         <v>7257</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C54" s="75" t="s">
         <v>20</v>
@@ -2929,16 +2932,16 @@
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="60" t="str">
         <f t="shared" si="15"/>
-        <v>6909</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>55</v>
+        <v>7284</v>
+      </c>
+      <c r="B55" s="90" t="s">
+        <v>144</v>
       </c>
       <c r="C55" s="75" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="76">
-        <v>1001025766909</v>
+        <v>1001025767284</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="23">
@@ -2958,7 +2961,7 @@
         <v>6764</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" s="75" t="s">
         <v>22</v>
@@ -2988,7 +2991,7 @@
         <v>6829</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" s="54" t="s">
         <v>22</v>
@@ -3018,7 +3021,7 @@
         <v>7075</v>
       </c>
       <c r="B58" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" s="75" t="s">
         <v>22</v>
@@ -3042,7 +3045,7 @@
         <v>7073</v>
       </c>
       <c r="B59" s="74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59" s="75" t="s">
         <v>20</v>
@@ -3068,7 +3071,7 @@
         <v>6724</v>
       </c>
       <c r="B60" s="74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C60" s="75" t="s">
         <v>20</v>
@@ -3094,7 +3097,7 @@
         <v>6761</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="75" t="s">
         <v>22</v>
@@ -3124,7 +3127,7 @@
         <v>7080</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="54" t="s">
         <v>20</v>
@@ -3154,7 +3157,7 @@
         <v>7276</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="54" t="s">
         <v>20</v>
@@ -3180,7 +3183,7 @@
         <v>7066</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="54" t="s">
         <v>20</v>
@@ -3210,7 +3213,7 @@
         <v/>
       </c>
       <c r="B65" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="47"/>
       <c r="D65" s="47"/>
@@ -3227,7 +3230,7 @@
         <v>7001</v>
       </c>
       <c r="B66" s="83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="54" t="s">
         <v>34</v>
@@ -3257,7 +3260,7 @@
         <v>6527</v>
       </c>
       <c r="B67" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="75" t="s">
         <v>34</v>
@@ -3287,7 +3290,7 @@
         <v>6609</v>
       </c>
       <c r="B68" s="74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C68" s="75" t="s">
         <v>20</v>
@@ -3313,7 +3316,7 @@
         <v>6550</v>
       </c>
       <c r="B69" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="75" t="s">
         <v>22</v>
@@ -3339,7 +3342,7 @@
         <v>6608</v>
       </c>
       <c r="B70" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" s="75" t="s">
         <v>22</v>
@@ -3369,7 +3372,7 @@
         <v/>
       </c>
       <c r="B71" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" s="47"/>
       <c r="D71" s="47"/>
@@ -3386,7 +3389,7 @@
         <v>6586</v>
       </c>
       <c r="B72" s="82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" s="75" t="s">
         <v>20</v>
@@ -3412,7 +3415,7 @@
         <v>6459</v>
       </c>
       <c r="B73" s="82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C73" s="75" t="s">
         <v>20</v>
@@ -3438,7 +3441,7 @@
         <v>7232</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C74" s="75" t="s">
         <v>20</v>
@@ -3466,7 +3469,7 @@
         <v>7241</v>
       </c>
       <c r="B75" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C75" s="75" t="s">
         <v>20</v>
@@ -3496,7 +3499,7 @@
         <v>7154</v>
       </c>
       <c r="B76" s="51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C76" s="75" t="s">
         <v>20</v>
@@ -3524,7 +3527,7 @@
         <v>6787</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" s="54" t="s">
         <v>20</v>
@@ -3554,7 +3557,7 @@
         <v>6697</v>
       </c>
       <c r="B78" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78" s="75" t="s">
         <v>20</v>
@@ -3584,7 +3587,7 @@
         <v>7237</v>
       </c>
       <c r="B79" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C79" s="75" t="s">
         <v>20</v>
@@ -3614,7 +3617,7 @@
         <v>7236</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C80" s="54" t="s">
         <v>20</v>
@@ -3644,7 +3647,7 @@
         <v>7169</v>
       </c>
       <c r="B81" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C81" s="54" t="s">
         <v>29</v>
@@ -3672,7 +3675,7 @@
         <v>7166</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C82" s="75" t="s">
         <v>22</v>
@@ -3698,7 +3701,7 @@
         <v>5544</v>
       </c>
       <c r="B83" s="82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C83" s="75" t="s">
         <v>22</v>
@@ -3728,7 +3731,7 @@
         <v>7133</v>
       </c>
       <c r="B84" s="82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C84" s="75" t="s">
         <v>22</v>
@@ -3756,7 +3759,7 @@
         <v>6791</v>
       </c>
       <c r="B85" s="82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C85" s="75" t="s">
         <v>20</v>
@@ -3784,7 +3787,7 @@
         <v>6792</v>
       </c>
       <c r="B86" s="82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C86" s="75" t="s">
         <v>22</v>
@@ -3812,7 +3815,7 @@
         <v>6793</v>
       </c>
       <c r="B87" s="82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C87" s="75" t="s">
         <v>20</v>
@@ -3840,7 +3843,7 @@
         <v>7131</v>
       </c>
       <c r="B88" s="82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C88" s="75" t="s">
         <v>22</v>
@@ -3868,7 +3871,7 @@
         <v>7144</v>
       </c>
       <c r="B89" s="82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C89" s="75" t="s">
         <v>20</v>
@@ -3896,7 +3899,7 @@
         <v>7146</v>
       </c>
       <c r="B90" s="82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C90" s="75" t="s">
         <v>22</v>
@@ -3924,7 +3927,7 @@
         <v>7135</v>
       </c>
       <c r="B91" s="82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C91" s="75" t="s">
         <v>20</v>
@@ -3952,7 +3955,7 @@
         <v>7134</v>
       </c>
       <c r="B92" s="82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C92" s="75" t="s">
         <v>20</v>
@@ -3980,7 +3983,7 @@
         <v>6807</v>
       </c>
       <c r="B93" s="82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C93" s="75" t="s">
         <v>20</v>
@@ -4009,7 +4012,7 @@
         <v/>
       </c>
       <c r="B94" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C94" s="47"/>
       <c r="D94" s="47"/>
@@ -4027,7 +4030,7 @@
         <v>5706</v>
       </c>
       <c r="B95" s="82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C95" s="75" t="s">
         <v>20</v>
@@ -4057,7 +4060,7 @@
         <v>5931</v>
       </c>
       <c r="B96" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C96" s="65" t="s">
         <v>20</v>
@@ -4087,7 +4090,7 @@
         <v>6834</v>
       </c>
       <c r="B97" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C97" s="54" t="s">
         <v>20</v>
@@ -4117,7 +4120,7 @@
         <v>7092</v>
       </c>
       <c r="B98" s="82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C98" s="75" t="s">
         <v>20</v>
@@ -4143,7 +4146,7 @@
         <v>6454</v>
       </c>
       <c r="B99" s="82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C99" s="75" t="s">
         <v>29</v>
@@ -4173,7 +4176,7 @@
         <v>5708</v>
       </c>
       <c r="B100" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C100" s="75" t="s">
         <v>22</v>
@@ -4203,7 +4206,7 @@
         <v>4993</v>
       </c>
       <c r="B101" s="82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C101" s="75" t="s">
         <v>29</v>
@@ -4233,7 +4236,7 @@
         <v>5682</v>
       </c>
       <c r="B102" s="82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C102" s="75" t="s">
         <v>20</v>
@@ -4263,7 +4266,7 @@
         <v>7147</v>
       </c>
       <c r="B103" s="82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C103" s="75" t="s">
         <v>20</v>
@@ -4289,7 +4292,7 @@
         <v>7229</v>
       </c>
       <c r="B104" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C104" s="75" t="s">
         <v>20</v>
@@ -4315,7 +4318,7 @@
         <v>7150</v>
       </c>
       <c r="B105" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C105" s="75" t="s">
         <v>22</v>
@@ -4341,7 +4344,7 @@
         <v>5707</v>
       </c>
       <c r="B106" s="82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C106" s="75" t="s">
         <v>20</v>
@@ -4367,7 +4370,7 @@
         <v>7227</v>
       </c>
       <c r="B107" s="82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C107" s="75" t="s">
         <v>20</v>
@@ -4393,7 +4396,7 @@
         <v>7225</v>
       </c>
       <c r="B108" s="82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C108" s="75" t="s">
         <v>20</v>
@@ -4419,7 +4422,7 @@
         <v>7226</v>
       </c>
       <c r="B109" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C109" s="75" t="s">
         <v>20</v>
@@ -4445,7 +4448,7 @@
         <v>7228</v>
       </c>
       <c r="B110" s="82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C110" s="75" t="s">
         <v>20</v>
@@ -4471,7 +4474,7 @@
         <v>6221</v>
       </c>
       <c r="B111" s="82" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C111" s="75" t="s">
         <v>20</v>
@@ -4497,7 +4500,7 @@
         <v>4117</v>
       </c>
       <c r="B112" s="82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C112" s="75" t="s">
         <v>22</v>
@@ -4527,7 +4530,7 @@
         <v>5483</v>
       </c>
       <c r="B113" s="82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C113" s="75" t="s">
         <v>20</v>
@@ -4557,7 +4560,7 @@
         <v>6453</v>
       </c>
       <c r="B114" s="82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C114" s="75" t="s">
         <v>29</v>
@@ -4587,7 +4590,7 @@
         <v>6228</v>
       </c>
       <c r="B115" s="82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C115" s="75" t="s">
         <v>29</v>
@@ -4613,7 +4616,7 @@
         <v>3287</v>
       </c>
       <c r="B116" s="82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C116" s="75" t="s">
         <v>22</v>
@@ -4643,7 +4646,7 @@
         <v/>
       </c>
       <c r="B117" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C117" s="47"/>
       <c r="D117" s="47"/>
@@ -4660,7 +4663,7 @@
         <v>6866</v>
       </c>
       <c r="B118" s="79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C118" s="75" t="s">
         <v>34</v>
@@ -4684,7 +4687,7 @@
         <v>3215</v>
       </c>
       <c r="B119" s="82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C119" s="75" t="s">
         <v>29</v>
@@ -4714,7 +4717,7 @@
         <v>5452</v>
       </c>
       <c r="B120" s="51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C120" s="75" t="s">
         <v>22</v>
@@ -4744,7 +4747,7 @@
         <v>5495</v>
       </c>
       <c r="B121" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C121" s="75" t="s">
         <v>20</v>
@@ -4774,7 +4777,7 @@
         <v>6495</v>
       </c>
       <c r="B122" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C122" s="75" t="s">
         <v>20</v>
@@ -4804,7 +4807,7 @@
         <v/>
       </c>
       <c r="B123" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C123" s="47"/>
       <c r="D123" s="47"/>
@@ -4821,7 +4824,7 @@
         <v>6448</v>
       </c>
       <c r="B124" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C124" s="75" t="s">
         <v>29</v>
@@ -4851,7 +4854,7 @@
         <v>6620</v>
       </c>
       <c r="B125" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C125" s="75" t="s">
         <v>22</v>
@@ -4875,7 +4878,7 @@
         <v>6279</v>
       </c>
       <c r="B126" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C126" s="75" t="s">
         <v>20</v>
@@ -4901,7 +4904,7 @@
         <v>7090</v>
       </c>
       <c r="B127" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C127" s="75" t="s">
         <v>29</v>
@@ -4931,7 +4934,7 @@
         <v>7187</v>
       </c>
       <c r="B128" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C128" s="75" t="s">
         <v>29</v>
@@ -4957,7 +4960,7 @@
         <v>7103</v>
       </c>
       <c r="B129" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C129" s="54" t="s">
         <v>29</v>
@@ -4988,7 +4991,7 @@
         <v>6872</v>
       </c>
       <c r="B130" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C130" s="75" t="s">
         <v>22</v>
@@ -5011,7 +5014,7 @@
     <row r="131" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="63"/>
       <c r="B131" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C131" s="16"/>
       <c r="D131" s="38"/>
